--- a/timestamps.xlsx
+++ b/timestamps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nrive\Research\DLC-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276BCFC2-D381-45DB-B630-74C62D71FD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9CF6D7-EAB9-4733-8AB9-614F40F19295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="4050" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -321,9 +321,6 @@
     <t>Datetime</t>
   </si>
   <si>
-    <t>5:40:21.000</t>
-  </si>
-  <si>
     <t>EEG_Initial TimeStamp</t>
   </si>
   <si>
@@ -403,6 +400,9 @@
   </si>
   <si>
     <t>EEG_Datetime</t>
+  </si>
+  <si>
+    <t>17:40:21.000</t>
   </si>
 </sst>
 </file>
@@ -853,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -888,7 +888,7 @@
         <v>71</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>93</v>
@@ -897,10 +897,10 @@
         <v>94</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -917,24 +917,24 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G2" s="8">
         <v>42013</v>
       </c>
       <c r="H2" s="9" t="str">
         <f>CONCATENATE(TEXT(G2,"mm/dd/yyyy")&amp;" "&amp;TEXT(E2,"hh:mm:ss.000"))</f>
-        <v>01/09/2015 05:40:21.000</v>
+        <v>01/09/2015 17:40:21.000</v>
       </c>
       <c r="I2" s="9" t="str">
         <f>CONCATENATE(TEXT(G2,"mm/dd/yyyy")&amp;" "&amp;TEXT(F2,"hh:mm:ss.000"))</f>
         <v>01/09/2015 17:57:33.462</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -951,24 +951,24 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G3" s="8">
         <v>42013</v>
       </c>
       <c r="H3" s="9" t="str">
         <f t="shared" ref="H3:H33" si="0">CONCATENATE(TEXT(G3,"mm/dd/yyyy")&amp;" "&amp;TEXT(E3,"hh:mm:ss.000"))</f>
-        <v>01/09/2015 05:40:21.000</v>
+        <v>01/09/2015 17:40:21.000</v>
       </c>
       <c r="I3" s="9" t="str">
         <f t="shared" ref="I3:I66" si="1">CONCATENATE(TEXT(G3,"mm/dd/yyyy")&amp;" "&amp;TEXT(F3,"hh:mm:ss.000"))</f>
         <v>01/09/2015 17:57:33.462</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -988,7 +988,7 @@
         <v>77</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G4" s="8">
         <v>41758</v>
@@ -1019,7 +1019,7 @@
         <v>78</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G5" s="8">
         <v>41599</v>
@@ -1205,7 +1205,7 @@
         <v>74</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G11" s="8">
         <v>41618</v>
@@ -1391,7 +1391,7 @@
         <v>75</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G17" s="8">
         <v>41599</v>
@@ -1484,7 +1484,7 @@
         <v>76</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G20" s="8">
         <v>41618</v>
@@ -1825,7 +1825,7 @@
         <v>79</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G31" s="8">
         <v>41645</v>
@@ -2011,7 +2011,7 @@
         <v>92</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G37" s="8">
         <v>42014</v>
@@ -2042,7 +2042,7 @@
         <v>72</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G38" s="8">
         <v>41577</v>
@@ -2104,7 +2104,7 @@
         <v>80</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G40" s="8">
         <v>41597</v>
@@ -2135,7 +2135,7 @@
         <v>81</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G41" s="8">
         <v>41617</v>
@@ -2287,10 +2287,10 @@
         <v>6</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G46" s="8">
         <v>41620</v>
@@ -2304,7 +2304,7 @@
         <v>12/12/2013 23:58:30.781</v>
       </c>
       <c r="J46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2665,7 +2665,7 @@
         <v>82</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G58" s="8">
         <v>41617</v>
@@ -2789,7 +2789,7 @@
         <v>83</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G62" s="8">
         <v>41624</v>
@@ -2913,7 +2913,7 @@
         <v>84</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G66" s="8">
         <v>41625</v>
@@ -3037,7 +3037,7 @@
         <v>85</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G70" s="8">
         <v>41628</v>
@@ -3161,7 +3161,7 @@
         <v>86</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G74" s="8">
         <v>42474</v>
@@ -3223,7 +3223,7 @@
         <v>87</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G76" s="8">
         <v>41810</v>
@@ -3285,7 +3285,7 @@
         <v>88</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G78" s="8">
         <v>42425</v>
@@ -3316,7 +3316,7 @@
         <v>88</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G79" s="8">
         <v>42425</v>
@@ -3347,7 +3347,7 @@
         <v>89</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G80" s="8">
         <v>42255</v>
@@ -3502,7 +3502,7 @@
         <v>89</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G85" s="8">
         <v>42255</v>
@@ -3626,7 +3626,7 @@
         <v>90</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G89" s="8">
         <v>42263</v>
@@ -3688,7 +3688,7 @@
         <v>89</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G91" s="8">
         <v>42255</v>
@@ -3843,7 +3843,7 @@
         <v>89</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G96" s="8">
         <v>42255</v>
@@ -3905,7 +3905,7 @@
         <v>67</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G98" s="8">
         <v>42263</v>
@@ -3936,7 +3936,7 @@
         <v>91</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G99" s="8">
         <v>42425</v>

--- a/timestamps.xlsx
+++ b/timestamps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nrive\Research\DLC-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9CF6D7-EAB9-4733-8AB9-614F40F19295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DD90FD-A6B9-4FFE-8AB6-3C0F3E21AD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="4050" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="109">
   <si>
     <t>Genotype</t>
   </si>
@@ -42,15 +42,6 @@
     <t>WT</t>
   </si>
   <si>
-    <t>Cre/+, WT</t>
-  </si>
-  <si>
-    <t>Flox-Ank3 HET</t>
-  </si>
-  <si>
-    <t>Flox-Ank3 HOM</t>
-  </si>
-  <si>
     <t>HET</t>
   </si>
   <si>
@@ -234,21 +225,6 @@
     <t>15:47:02.531</t>
   </si>
   <si>
-    <t>02:53:32.125</t>
-  </si>
-  <si>
-    <t>10:53:59.687</t>
-  </si>
-  <si>
-    <t>18:54:27.250</t>
-  </si>
-  <si>
-    <t>02:55:00.140</t>
-  </si>
-  <si>
-    <t>03:33:15.593</t>
-  </si>
-  <si>
     <t>video_initial TimeStamp</t>
   </si>
   <si>
@@ -300,18 +276,6 @@
     <t>15:52:06.000</t>
   </si>
   <si>
-    <t>11:55:47.000</t>
-  </si>
-  <si>
-    <t>18:53:04.000</t>
-  </si>
-  <si>
-    <t>19:32:47.000</t>
-  </si>
-  <si>
-    <t>11:43.000</t>
-  </si>
-  <si>
     <t>6:36:49.000</t>
   </si>
   <si>
@@ -378,15 +342,6 @@
     <t>15:52:58.473</t>
   </si>
   <si>
-    <t>11:55:59.863</t>
-  </si>
-  <si>
-    <t>18:53:22.670</t>
-  </si>
-  <si>
-    <t>19:33:25.400</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -403,6 +358,9 @@
   </si>
   <si>
     <t>17:40:21.000</t>
+  </si>
+  <si>
+    <t>pixel_val</t>
   </si>
 </sst>
 </file>
@@ -851,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J232"/>
+  <dimension ref="A1:K210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -868,42 +826,46 @@
     <col min="7" max="7" width="23.85546875" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.85546875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>3</v>
       </c>
@@ -917,10 +879,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="G2" s="8">
         <v>42013</v>
@@ -933,11 +895,14 @@
         <f>CONCATENATE(TEXT(G2,"mm/dd/yyyy")&amp;" "&amp;TEXT(F2,"hh:mm:ss.000"))</f>
         <v>01/09/2015 17:57:33.462</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>6.4147959000000004E-2</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>4</v>
       </c>
@@ -951,10 +916,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="G3" s="8">
         <v>42013</v>
@@ -967,11 +932,14 @@
         <f t="shared" ref="I3:I66" si="1">CONCATENATE(TEXT(G3,"mm/dd/yyyy")&amp;" "&amp;TEXT(F3,"hh:mm:ss.000"))</f>
         <v>01/09/2015 17:57:33.462</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>6.0447115000000003E-2</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>8</v>
       </c>
@@ -982,13 +950,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="G4" s="8">
         <v>41758</v>
@@ -1001,8 +969,11 @@
         <f t="shared" si="1"/>
         <v>04/29/2014 00:08:03.915</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>9</v>
       </c>
@@ -1013,13 +984,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G5" s="8">
         <v>41599</v>
@@ -1032,8 +1003,11 @@
         <f t="shared" si="1"/>
         <v>11/21/2013 13:18:21.722</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>9</v>
       </c>
@@ -1044,13 +1018,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G6" s="8">
         <v>41599</v>
@@ -1063,8 +1037,11 @@
         <f t="shared" si="1"/>
         <v>11/21/2013 14:18:28.078</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>9</v>
       </c>
@@ -1075,13 +1052,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G7" s="8">
         <v>41599</v>
@@ -1094,8 +1071,11 @@
         <f t="shared" si="1"/>
         <v>11/21/2013 15:19:01.546</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>9</v>
       </c>
@@ -1106,13 +1086,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G8" s="8">
         <v>41599</v>
@@ -1125,8 +1105,11 @@
         <f t="shared" si="1"/>
         <v>11/21/2013 16:19:30.171</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>9</v>
       </c>
@@ -1137,13 +1120,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G9" s="8">
         <v>41599</v>
@@ -1156,8 +1139,11 @@
         <f t="shared" si="1"/>
         <v>11/21/2013 17:20:04.828</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -1168,13 +1154,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G10" s="8">
         <v>41599</v>
@@ -1187,8 +1173,11 @@
         <f t="shared" si="1"/>
         <v>11/21/2013 18:20:32.421</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -1199,13 +1188,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="G11" s="8">
         <v>41618</v>
@@ -1218,8 +1207,11 @@
         <f t="shared" si="1"/>
         <v>12/10/2013 14:20:27.218</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>9</v>
       </c>
@@ -1230,13 +1222,13 @@
         <v>2</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G12" s="8">
         <v>41618</v>
@@ -1249,8 +1241,11 @@
         <f t="shared" si="1"/>
         <v>12/10/2013 15:20:30.843</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>9</v>
       </c>
@@ -1261,13 +1256,13 @@
         <v>3</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G13" s="8">
         <v>41618</v>
@@ -1280,8 +1275,11 @@
         <f t="shared" si="1"/>
         <v>12/10/2013 16:21:06.781</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>9</v>
       </c>
@@ -1292,13 +1290,13 @@
         <v>4</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G14" s="8">
         <v>41618</v>
@@ -1311,8 +1309,11 @@
         <f t="shared" si="1"/>
         <v>12/10/2013 17:21:40.281</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>9</v>
       </c>
@@ -1323,13 +1324,13 @@
         <v>5</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G15" s="8">
         <v>41618</v>
@@ -1342,8 +1343,11 @@
         <f t="shared" si="1"/>
         <v>12/10/2013 18:22:08.171</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>9</v>
       </c>
@@ -1354,13 +1358,13 @@
         <v>6</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G16" s="8">
         <v>41618</v>
@@ -1373,8 +1377,11 @@
         <f t="shared" si="1"/>
         <v>12/10/2013 19:22:36.218</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>10</v>
       </c>
@@ -1385,13 +1392,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="G17" s="8">
         <v>41599</v>
@@ -1404,8 +1411,11 @@
         <f t="shared" si="1"/>
         <v>11/21/2013 19:55:34.802</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>10</v>
       </c>
@@ -1416,13 +1426,13 @@
         <v>2</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G18" s="8">
         <v>41599</v>
@@ -1435,8 +1445,11 @@
         <f t="shared" si="1"/>
         <v>11/21/2013 20:55:40.796</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>10</v>
       </c>
@@ -1447,13 +1460,13 @@
         <v>3</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G19" s="8">
         <v>41599</v>
@@ -1466,8 +1479,11 @@
         <f t="shared" si="1"/>
         <v>11/21/2013 21:56:09.906</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>10</v>
       </c>
@@ -1478,13 +1494,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="G20" s="8">
         <v>41618</v>
@@ -1497,8 +1513,11 @@
         <f t="shared" si="1"/>
         <v>12/10/2013 20:39:14.550</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>10</v>
       </c>
@@ -1509,13 +1528,13 @@
         <v>3</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G21" s="8">
         <v>41618</v>
@@ -1528,8 +1547,11 @@
         <f t="shared" si="1"/>
         <v>12/10/2013 22:39:49.984</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>10</v>
       </c>
@@ -1540,13 +1562,13 @@
         <v>4</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G22" s="8">
         <v>41618</v>
@@ -1559,8 +1581,11 @@
         <f t="shared" si="1"/>
         <v>12/10/2013 23:40:18.562</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>10</v>
       </c>
@@ -1571,13 +1596,13 @@
         <v>5</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G23" s="8">
         <v>41619</v>
@@ -1590,8 +1615,11 @@
         <f t="shared" si="1"/>
         <v>12/11/2013 00:40:46.343</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>10</v>
       </c>
@@ -1602,13 +1630,13 @@
         <v>6</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G24" s="8">
         <v>41619</v>
@@ -1621,8 +1649,11 @@
         <f t="shared" si="1"/>
         <v>12/11/2013 01:41:15.437</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>10</v>
       </c>
@@ -1633,13 +1664,13 @@
         <v>7</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G25" s="8">
         <v>41619</v>
@@ -1652,8 +1683,11 @@
         <f t="shared" si="1"/>
         <v>12/11/2013 02:41:42.937</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>10</v>
       </c>
@@ -1664,13 +1698,13 @@
         <v>8</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G26" s="8">
         <v>41619</v>
@@ -1683,8 +1717,11 @@
         <f t="shared" si="1"/>
         <v>12/11/2013 03:42:11.671</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>10</v>
       </c>
@@ -1695,13 +1732,13 @@
         <v>9</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G27" s="8">
         <v>41619</v>
@@ -1714,8 +1751,11 @@
         <f t="shared" si="1"/>
         <v>12/11/2013 04:42:39.640</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>10</v>
       </c>
@@ -1726,13 +1766,13 @@
         <v>10</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G28" s="8">
         <v>41619</v>
@@ -1745,8 +1785,11 @@
         <f t="shared" si="1"/>
         <v>12/11/2013 05:43:07.312</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>10</v>
       </c>
@@ -1757,13 +1800,13 @@
         <v>11</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G29" s="8">
         <v>41619</v>
@@ -1776,8 +1819,11 @@
         <f t="shared" si="1"/>
         <v>12/11/2013 06:43:35.859</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>10</v>
       </c>
@@ -1788,13 +1834,13 @@
         <v>12</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G30" s="8">
         <v>41619</v>
@@ -1807,8 +1853,11 @@
         <f t="shared" si="1"/>
         <v>12/11/2013 07:44:05.921</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>10</v>
       </c>
@@ -1819,13 +1868,13 @@
         <v>1</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="G31" s="8">
         <v>41645</v>
@@ -1838,8 +1887,11 @@
         <f t="shared" si="1"/>
         <v>01/06/2014 11:51:35.921</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>10</v>
       </c>
@@ -1850,13 +1902,13 @@
         <v>2</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G32" s="8">
         <v>41645</v>
@@ -1869,8 +1921,11 @@
         <f t="shared" si="1"/>
         <v>01/06/2014 12:51:45.062</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>10</v>
       </c>
@@ -1881,13 +1936,13 @@
         <v>3</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G33" s="8">
         <v>41645</v>
@@ -1900,8 +1955,11 @@
         <f t="shared" si="1"/>
         <v>01/06/2014 13:52:19.093</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>7.6664633999999995E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>10</v>
       </c>
@@ -1912,13 +1970,13 @@
         <v>4</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G34" s="8">
         <v>41645</v>
@@ -1931,8 +1989,11 @@
         <f t="shared" si="1"/>
         <v>01/06/2014 14:52:50.906</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>7.6664633999999995E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>12</v>
       </c>
@@ -1943,13 +2004,13 @@
         <v>1</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G35" s="8">
         <v>41926</v>
@@ -1962,8 +2023,11 @@
         <f t="shared" si="1"/>
         <v>10/14/2014 17:41:12.968</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>7.6664633999999995E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>12</v>
       </c>
@@ -1974,13 +2038,13 @@
         <v>2</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G36" s="8">
         <v>41927</v>
@@ -1993,8 +2057,11 @@
         <f t="shared" si="1"/>
         <v>10/15/2014 05:42:25.484</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>7.6664633999999995E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>13</v>
       </c>
@@ -2005,13 +2072,13 @@
         <v>1</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="G37" s="8">
         <v>42014</v>
@@ -2025,7 +2092,7 @@
         <v>01/10/2015 18:37:07.685</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>16</v>
       </c>
@@ -2036,13 +2103,13 @@
         <v>2</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="G38" s="8">
         <v>41577</v>
@@ -2055,8 +2122,11 @@
         <f t="shared" si="1"/>
         <v>10/30/2013 17:47:26.625</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>16</v>
       </c>
@@ -2067,13 +2137,13 @@
         <v>3</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G39" s="8">
         <v>41577</v>
@@ -2086,8 +2156,11 @@
         <f t="shared" si="1"/>
         <v>10/30/2013 18:46:02.640</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>18</v>
       </c>
@@ -2098,13 +2171,13 @@
         <v>1</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G40" s="8">
         <v>41597</v>
@@ -2117,8 +2190,11 @@
         <f t="shared" si="1"/>
         <v>11/19/2013 11:35:20.698</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>18</v>
       </c>
@@ -2129,13 +2205,13 @@
         <v>1</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="G41" s="8">
         <v>41617</v>
@@ -2148,8 +2224,11 @@
         <f t="shared" si="1"/>
         <v>12/09/2013 15:27:39.795</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>18</v>
       </c>
@@ -2160,13 +2239,13 @@
         <v>2</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G42" s="8">
         <v>41617</v>
@@ -2179,8 +2258,11 @@
         <f t="shared" si="1"/>
         <v>12/09/2013 16:27:14.859</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>18</v>
       </c>
@@ -2191,13 +2273,13 @@
         <v>3</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G43" s="8">
         <v>41617</v>
@@ -2210,8 +2292,11 @@
         <f t="shared" si="1"/>
         <v>12/09/2013 17:27:43.312</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>18</v>
       </c>
@@ -2222,13 +2307,13 @@
         <v>4</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G44" s="8">
         <v>41617</v>
@@ -2241,8 +2326,11 @@
         <f t="shared" si="1"/>
         <v>12/09/2013 18:28:12.062</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>18</v>
       </c>
@@ -2253,13 +2341,13 @@
         <v>5</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G45" s="8">
         <v>41617</v>
@@ -2272,8 +2360,11 @@
         <f t="shared" si="1"/>
         <v>12/09/2013 19:28:41.000</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>18</v>
       </c>
@@ -2284,13 +2375,13 @@
         <v>1</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="G46" s="8">
         <v>41620</v>
@@ -2303,11 +2394,14 @@
         <f t="shared" si="1"/>
         <v>12/12/2013 23:58:30.781</v>
       </c>
-      <c r="J46" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <v>5.1097655999999998E-2</v>
+      </c>
+      <c r="K46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
         <v>18</v>
       </c>
@@ -2318,13 +2412,13 @@
         <v>2</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G47" s="8">
         <v>41621</v>
@@ -2337,8 +2431,11 @@
         <f t="shared" si="1"/>
         <v>12/13/2013 00:55:39.859</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <v>18</v>
       </c>
@@ -2349,13 +2446,13 @@
         <v>3</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G48" s="8">
         <v>41621</v>
@@ -2368,8 +2465,11 @@
         <f t="shared" si="1"/>
         <v>12/13/2013 01:56:09.265</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>18</v>
       </c>
@@ -2380,13 +2480,13 @@
         <v>4</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G49" s="8">
         <v>41621</v>
@@ -2399,8 +2499,11 @@
         <f t="shared" si="1"/>
         <v>12/13/2013 02:56:38.062</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>18</v>
       </c>
@@ -2411,13 +2514,13 @@
         <v>5</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G50" s="8">
         <v>41621</v>
@@ -2430,8 +2533,11 @@
         <f t="shared" si="1"/>
         <v>12/13/2013 03:57:06.265</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>18</v>
       </c>
@@ -2442,13 +2548,13 @@
         <v>6</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G51" s="8">
         <v>41621</v>
@@ -2461,8 +2567,11 @@
         <f t="shared" si="1"/>
         <v>12/13/2013 04:57:34.812</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>18</v>
       </c>
@@ -2473,13 +2582,13 @@
         <v>7</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G52" s="8">
         <v>41621</v>
@@ -2492,8 +2601,11 @@
         <f t="shared" si="1"/>
         <v>12/13/2013 05:58:02.906</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>18</v>
       </c>
@@ -2504,13 +2616,13 @@
         <v>8</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G53" s="8">
         <v>41621</v>
@@ -2523,8 +2635,11 @@
         <f t="shared" si="1"/>
         <v>12/13/2013 06:58:30.953</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>18</v>
       </c>
@@ -2535,13 +2650,13 @@
         <v>9</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G54" s="8">
         <v>41621</v>
@@ -2554,8 +2669,11 @@
         <f t="shared" si="1"/>
         <v>12/13/2013 07:59:00.625</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>18</v>
       </c>
@@ -2566,13 +2684,13 @@
         <v>10</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G55" s="8">
         <v>41621</v>
@@ -2585,8 +2703,11 @@
         <f t="shared" si="1"/>
         <v>12/13/2013 08:59:28.296</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>18</v>
       </c>
@@ -2597,13 +2718,13 @@
         <v>11</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G56" s="8">
         <v>41621</v>
@@ -2616,8 +2737,11 @@
         <f t="shared" si="1"/>
         <v>12/13/2013 09:59:55.890</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>18</v>
       </c>
@@ -2628,13 +2752,13 @@
         <v>12</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G57" s="8">
         <v>41621</v>
@@ -2647,8 +2771,11 @@
         <f t="shared" si="1"/>
         <v>12/13/2013 11:00:23.437</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <v>19</v>
       </c>
@@ -2659,13 +2786,13 @@
         <v>1</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G58" s="8">
         <v>41617</v>
@@ -2678,8 +2805,11 @@
         <f t="shared" si="1"/>
         <v>12/09/2013 20:02:04.277</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
         <v>19</v>
       </c>
@@ -2690,13 +2820,13 @@
         <v>2</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G59" s="8">
         <v>41617</v>
@@ -2709,8 +2839,11 @@
         <f t="shared" si="1"/>
         <v>12/09/2013 21:02:13.062</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
         <v>19</v>
       </c>
@@ -2721,13 +2854,13 @@
         <v>3</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G60" s="8">
         <v>41617</v>
@@ -2740,8 +2873,11 @@
         <f t="shared" si="1"/>
         <v>12/09/2013 22:02:41.265</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
         <v>19</v>
       </c>
@@ -2752,13 +2888,13 @@
         <v>4</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G61" s="8">
         <v>41617</v>
@@ -2771,8 +2907,11 @@
         <f t="shared" si="1"/>
         <v>12/09/2013 23:03:10.296</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
         <v>19</v>
       </c>
@@ -2783,13 +2922,13 @@
         <v>1</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="G62" s="8">
         <v>41624</v>
@@ -2802,8 +2941,11 @@
         <f t="shared" si="1"/>
         <v>12/16/2013 11:51:41.588</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
         <v>19</v>
       </c>
@@ -2814,13 +2956,13 @@
         <v>2</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G63" s="8">
         <v>41624</v>
@@ -2833,8 +2975,11 @@
         <f t="shared" si="1"/>
         <v>12/16/2013 12:51:52.406</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <v>19</v>
       </c>
@@ -2845,13 +2990,13 @@
         <v>3</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G64" s="8">
         <v>41624</v>
@@ -2864,8 +3009,11 @@
         <f t="shared" si="1"/>
         <v>12/16/2013 13:52:24.218</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="10">
         <v>19</v>
       </c>
@@ -2876,13 +3024,13 @@
         <v>4</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G65" s="8">
         <v>41624</v>
@@ -2895,8 +3043,11 @@
         <f t="shared" si="1"/>
         <v>12/16/2013 14:52:55.218</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
         <v>19</v>
       </c>
@@ -2907,27 +3058,30 @@
         <v>1</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="G66" s="8">
         <v>41625</v>
       </c>
       <c r="H66" s="9" t="str">
-        <f t="shared" ref="H66:H97" si="3">CONCATENATE(TEXT(G66,"mm/dd/yyyy")&amp;" "&amp;TEXT(E66,"hh:mm:ss.000"))</f>
+        <f t="shared" ref="H66:H77" si="3">CONCATENATE(TEXT(G66,"mm/dd/yyyy")&amp;" "&amp;TEXT(E66,"hh:mm:ss.000"))</f>
         <v>12/17/2013 12:13:28.000</v>
       </c>
       <c r="I66" s="9" t="str">
         <f t="shared" si="1"/>
         <v>12/17/2013 12:14:16.945</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
         <v>19</v>
       </c>
@@ -2938,13 +3092,13 @@
         <v>2</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G67" s="8">
         <v>41625</v>
@@ -2954,11 +3108,14 @@
         <v>12/17/2013 13:14:00.515</v>
       </c>
       <c r="I67" s="9" t="str">
-        <f t="shared" ref="I67:I99" si="4">CONCATENATE(TEXT(G67,"mm/dd/yyyy")&amp;" "&amp;TEXT(F67,"hh:mm:ss.000"))</f>
+        <f t="shared" ref="I67:I77" si="4">CONCATENATE(TEXT(G67,"mm/dd/yyyy")&amp;" "&amp;TEXT(F67,"hh:mm:ss.000"))</f>
         <v>12/17/2013 13:14:00.515</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
         <v>19</v>
       </c>
@@ -2969,13 +3126,13 @@
         <v>3</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G68" s="8">
         <v>41625</v>
@@ -2988,8 +3145,11 @@
         <f t="shared" si="4"/>
         <v>12/17/2013 14:14:31.328</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="10">
         <v>19</v>
       </c>
@@ -3000,13 +3160,13 @@
         <v>4</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G69" s="8">
         <v>41625</v>
@@ -3019,8 +3179,11 @@
         <f t="shared" si="4"/>
         <v>12/17/2013 15:15:02.515</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="10">
         <v>19</v>
       </c>
@@ -3031,13 +3194,13 @@
         <v>1</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G70" s="8">
         <v>41628</v>
@@ -3050,8 +3213,11 @@
         <f t="shared" si="4"/>
         <v>12/20/2013 12:21:19.761</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="10">
         <v>19</v>
       </c>
@@ -3062,13 +3228,13 @@
         <v>2</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G71" s="8">
         <v>41628</v>
@@ -3081,8 +3247,11 @@
         <f t="shared" si="4"/>
         <v>12/20/2013 13:21:29.812</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="10">
         <v>19</v>
       </c>
@@ -3093,13 +3262,13 @@
         <v>3</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G72" s="8">
         <v>41628</v>
@@ -3112,8 +3281,11 @@
         <f t="shared" si="4"/>
         <v>12/20/2013 14:22:00.750</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="10">
         <v>19</v>
       </c>
@@ -3124,13 +3296,13 @@
         <v>4</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G73" s="8">
         <v>41628</v>
@@ -3143,8 +3315,11 @@
         <f t="shared" si="4"/>
         <v>12/20/2013 15:22:35.015</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="10">
         <v>20</v>
       </c>
@@ -3155,13 +3330,13 @@
         <v>1</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G74" s="8">
         <v>42474</v>
@@ -3174,8 +3349,11 @@
         <f t="shared" si="4"/>
         <v>04/14/2016 12:46:30.876</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74">
+        <v>5.1097655999999998E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="10">
         <v>20</v>
       </c>
@@ -3186,13 +3364,13 @@
         <v>2</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G75" s="8">
         <v>42474</v>
@@ -3205,8 +3383,11 @@
         <f t="shared" si="4"/>
         <v>04/14/2016 15:47:02.531</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75">
+        <v>6.1268000000000003E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="10">
         <v>21</v>
       </c>
@@ -3217,13 +3398,13 @@
         <v>1</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G76" s="8">
         <v>41810</v>
@@ -3237,7 +3418,7 @@
         <v>06/20/2014 15:52:58.473</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10">
         <v>22</v>
       </c>
@@ -3248,13 +3429,13 @@
         <v>1</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G77" s="8">
         <v>41926</v>
@@ -3267,726 +3448,113 @@
         <f t="shared" si="4"/>
         <v>10/14/2014 17:41:12.968</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="10">
-        <v>36</v>
-      </c>
-      <c r="B78" s="10">
-        <v>1</v>
-      </c>
-      <c r="C78" s="11">
-        <v>1</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G78" s="8">
-        <v>42425</v>
-      </c>
-      <c r="H78" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>02/25/2016 11:55:47.000</v>
-      </c>
-      <c r="I78" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>02/25/2016 11:55:59.863</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="10">
-        <v>37</v>
-      </c>
-      <c r="B79" s="10">
-        <v>1</v>
-      </c>
-      <c r="C79" s="11">
-        <v>1</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G79" s="8">
-        <v>42425</v>
-      </c>
-      <c r="H79" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>02/25/2016 11:55:47.000</v>
-      </c>
-      <c r="I79" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>02/25/2016 11:55:59.863</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="10">
-        <v>38</v>
-      </c>
-      <c r="B80" s="10">
-        <v>1</v>
-      </c>
-      <c r="C80" s="11">
-        <v>1</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G80" s="8">
-        <v>42255</v>
-      </c>
-      <c r="H80" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>09/08/2015 18:53:04.000</v>
-      </c>
-      <c r="I80" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>09/08/2015 18:53:22.670</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="10">
-        <v>38</v>
-      </c>
-      <c r="B81" s="10">
-        <v>1</v>
-      </c>
-      <c r="C81" s="11">
-        <v>2</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G81" s="8">
-        <v>42255</v>
-      </c>
-      <c r="H81" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>09/08/2015 02:53:32.125</v>
-      </c>
-      <c r="I81" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>09/08/2015 02:53:32.125</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="10">
-        <v>38</v>
-      </c>
-      <c r="B82" s="10">
-        <v>1</v>
-      </c>
-      <c r="C82" s="11">
-        <v>3</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G82" s="8">
-        <v>42255</v>
-      </c>
-      <c r="H82" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>09/08/2015 10:53:59.687</v>
-      </c>
-      <c r="I82" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>09/08/2015 10:53:59.687</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="10">
-        <v>38</v>
-      </c>
-      <c r="B83" s="10">
-        <v>1</v>
-      </c>
-      <c r="C83" s="11">
-        <v>4</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G83" s="8">
-        <v>42256</v>
-      </c>
-      <c r="H83" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>09/09/2015 18:54:27.250</v>
-      </c>
-      <c r="I83" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>09/09/2015 18:54:27.250</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="10">
-        <v>38</v>
-      </c>
-      <c r="B84" s="10">
-        <v>1</v>
-      </c>
-      <c r="C84" s="11">
-        <v>5</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G84" s="8">
-        <v>42256</v>
-      </c>
-      <c r="H84" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>09/09/2015 02:55:00.140</v>
-      </c>
-      <c r="I84" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>09/09/2015 02:55:00.140</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="10">
-        <v>39</v>
-      </c>
-      <c r="B85" s="10">
-        <v>1</v>
-      </c>
-      <c r="C85" s="11">
-        <v>1</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G85" s="8">
-        <v>42255</v>
-      </c>
-      <c r="H85" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>09/08/2015 18:53:04.000</v>
-      </c>
-      <c r="I85" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>09/08/2015 18:53:22.670</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="10">
-        <v>39</v>
-      </c>
-      <c r="B86" s="10">
-        <v>1</v>
-      </c>
-      <c r="C86" s="11">
-        <v>2</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G86" s="8">
-        <v>42256</v>
-      </c>
-      <c r="H86" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>09/09/2015 02:53:32.125</v>
-      </c>
-      <c r="I86" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>09/09/2015 02:53:32.125</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="10">
-        <v>39</v>
-      </c>
-      <c r="B87" s="10">
-        <v>1</v>
-      </c>
-      <c r="C87" s="11">
-        <v>3</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G87" s="8">
-        <v>42256</v>
-      </c>
-      <c r="H87" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>09/09/2015 10:53:59.687</v>
-      </c>
-      <c r="I87" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>09/09/2015 10:53:59.687</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="10">
-        <v>39</v>
-      </c>
-      <c r="B88" s="10">
-        <v>1</v>
-      </c>
-      <c r="C88" s="11">
-        <v>4</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G88" s="8">
-        <v>42256</v>
-      </c>
-      <c r="H88" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>09/09/2015 18:54:27.250</v>
-      </c>
-      <c r="I88" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>09/09/2015 18:54:27.250</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="10">
-        <v>39</v>
-      </c>
-      <c r="B89" s="10">
-        <v>2</v>
-      </c>
-      <c r="C89" s="11">
-        <v>1</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G89" s="8">
-        <v>42263</v>
-      </c>
-      <c r="H89" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>09/16/2015 19:32:47.000</v>
-      </c>
-      <c r="I89" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>09/16/2015 19:33:25.400</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="10">
-        <v>39</v>
-      </c>
-      <c r="B90" s="10">
-        <v>2</v>
-      </c>
-      <c r="C90" s="11">
-        <v>2</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G90" s="8">
-        <v>42264</v>
-      </c>
-      <c r="H90" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>09/17/2015 03:33:15.593</v>
-      </c>
-      <c r="I90" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>09/17/2015 03:33:15.593</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="10">
-        <v>40</v>
-      </c>
-      <c r="B91" s="10">
-        <v>1</v>
-      </c>
-      <c r="C91" s="11">
-        <v>1</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G91" s="8">
-        <v>42255</v>
-      </c>
-      <c r="H91" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>09/08/2015 18:53:04.000</v>
-      </c>
-      <c r="I91" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>09/08/2015 18:53:22.670</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="10">
-        <v>40</v>
-      </c>
-      <c r="B92" s="10">
-        <v>1</v>
-      </c>
-      <c r="C92" s="11">
-        <v>2</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G92" s="8">
-        <v>42256</v>
-      </c>
-      <c r="H92" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>09/09/2015 02:53:32.125</v>
-      </c>
-      <c r="I92" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>09/09/2015 02:53:32.125</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="10">
-        <v>40</v>
-      </c>
-      <c r="B93" s="10">
-        <v>1</v>
-      </c>
-      <c r="C93" s="11">
-        <v>3</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G93" s="8">
-        <v>42256</v>
-      </c>
-      <c r="H93" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>09/09/2015 10:53:59.687</v>
-      </c>
-      <c r="I93" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>09/09/2015 10:53:59.687</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="10">
-        <v>40</v>
-      </c>
-      <c r="B94" s="10">
-        <v>1</v>
-      </c>
-      <c r="C94" s="11">
-        <v>4</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G94" s="8">
-        <v>42256</v>
-      </c>
-      <c r="H94" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>09/09/2015 18:54:27.250</v>
-      </c>
-      <c r="I94" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>09/09/2015 18:54:27.250</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="10">
-        <v>40</v>
-      </c>
-      <c r="B95" s="10">
-        <v>2</v>
-      </c>
-      <c r="C95" s="11">
-        <v>2</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G95" s="8">
-        <v>42264</v>
-      </c>
-      <c r="H95" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>09/17/2015 03:33:15.593</v>
-      </c>
-      <c r="I95" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>09/17/2015 03:33:15.593</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="10">
-        <v>41</v>
-      </c>
-      <c r="B96" s="10">
-        <v>1</v>
-      </c>
-      <c r="C96" s="11">
-        <v>1</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G96" s="8">
-        <v>42255</v>
-      </c>
-      <c r="H96" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>09/08/2015 18:53:04.000</v>
-      </c>
-      <c r="I96" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>09/08/2015 18:53:22.670</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="10">
-        <v>41</v>
-      </c>
-      <c r="B97" s="10">
-        <v>1</v>
-      </c>
-      <c r="C97" s="11">
-        <v>3</v>
-      </c>
-      <c r="D97" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G97" s="8">
-        <v>42256</v>
-      </c>
-      <c r="H97" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>09/09/2015 02:53:32.125</v>
-      </c>
-      <c r="I97" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>09/09/2015 10:53:59.687</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="10">
-        <v>41</v>
-      </c>
-      <c r="B98" s="10">
-        <v>2</v>
-      </c>
-      <c r="C98" s="11">
-        <v>1</v>
-      </c>
-      <c r="D98" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G98" s="8">
-        <v>42263</v>
-      </c>
-      <c r="H98" s="9" t="str">
-        <f t="shared" ref="H98:H99" si="5">CONCATENATE(TEXT(G98,"mm/dd/yyyy")&amp;" "&amp;TEXT(E98,"hh:mm:ss.000"))</f>
-        <v>09/16/2015 10:53:59.687</v>
-      </c>
-      <c r="I98" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>09/16/2015 19:33:25.400</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="10">
-        <v>42</v>
-      </c>
-      <c r="B99" s="10">
-        <v>1</v>
-      </c>
-      <c r="C99" s="11">
-        <v>1</v>
-      </c>
-      <c r="D99" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G99" s="8">
-        <v>42425</v>
-      </c>
-      <c r="H99" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>02/25/2016 00:11:43.000</v>
-      </c>
-      <c r="I99" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>02/25/2016 11:55:59.863</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77">
+        <v>9.2448529000000002E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="12"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="12"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B80" s="12"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="12"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="12"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="12"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="12"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="12"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="12"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="12"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="12"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="12"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="12"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="12"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="12"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="12"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="12"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="12"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="12"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="12"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="12"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="12"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="12"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="12"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="12"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" s="12"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="12"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="12"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="12"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="12"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" s="12"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" s="12"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" s="12"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" s="12"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" s="12"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
@@ -4282,72 +3850,6 @@
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B210" s="12"/>
-    </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B211" s="12"/>
-    </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B212" s="12"/>
-    </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B213" s="12"/>
-    </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B214" s="12"/>
-    </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B215" s="12"/>
-    </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B216" s="12"/>
-    </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B217" s="12"/>
-    </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B218" s="12"/>
-    </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B219" s="12"/>
-    </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B220" s="12"/>
-    </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B221" s="12"/>
-    </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B222" s="12"/>
-    </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B223" s="12"/>
-    </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B224" s="12"/>
-    </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B225" s="12"/>
-    </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B226" s="12"/>
-    </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B227" s="12"/>
-    </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B228" s="12"/>
-    </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B229" s="12"/>
-    </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B230" s="12"/>
-    </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B231" s="12"/>
-    </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B232" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/timestamps.xlsx
+++ b/timestamps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nrive\Research\DLC-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFDA18B-342F-42D7-B3AB-EA3A8CB5923E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1564F6-76E2-4D8A-9ED2-E03B15D2DE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23970" yWindow="8145" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="timestamps" sheetId="9" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="112">
   <si>
     <t>Genotype</t>
   </si>
@@ -370,9 +370,6 @@
   </si>
   <si>
     <t>11:34:50.000</t>
-  </si>
-  <si>
-    <t>21:13:59.000</t>
   </si>
 </sst>
 </file>
@@ -812,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L214"/>
+  <dimension ref="A1:L213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P61" sqref="P61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -939,7 +936,7 @@
         <v>01/09/2015 17:40:21.000</v>
       </c>
       <c r="I3" s="8" t="str">
-        <f t="shared" ref="I3:I70" si="1">CONCATENATE(TEXT(G3,"mm/dd/yyyy")&amp;" "&amp;TEXT(F3,"hh:mm:ss.000"))</f>
+        <f t="shared" ref="I3:I69" si="1">CONCATENATE(TEXT(G3,"mm/dd/yyyy")&amp;" "&amp;TEXT(F3,"hh:mm:ss.000"))</f>
         <v>01/09/2015 17:57:33.462</v>
       </c>
       <c r="J3" s="8">
@@ -2198,7 +2195,7 @@
         <v>41645</v>
       </c>
       <c r="H37" s="8" t="str">
-        <f t="shared" ref="H37:H69" si="4">CONCATENATE(TEXT(G37,"mm/dd/yyyy")&amp;" "&amp;TEXT(E37,"hh:mm:ss.000"))</f>
+        <f t="shared" ref="H37:H68" si="4">CONCATENATE(TEXT(G37,"mm/dd/yyyy")&amp;" "&amp;TEXT(E37,"hh:mm:ss.000"))</f>
         <v>01/06/2014 14:52:50.906</v>
       </c>
       <c r="I37" s="8" t="str">
@@ -2365,7 +2362,7 @@
         <v>17</v>
       </c>
       <c r="B42" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" s="10">
         <v>1</v>
@@ -2374,21 +2371,21 @@
         <v>3</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>112</v>
+        <v>105</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="G42" s="7">
-        <v>41592</v>
+        <v>41596</v>
       </c>
       <c r="H42" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>11/14/2013 21:13:59.000</v>
+        <v>11/18/2013 13:21:59.000</v>
       </c>
       <c r="I42" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>11/14/2013 21:13:59.000</v>
+        <v>11/18/2013 13:22:35.362</v>
       </c>
       <c r="J42" s="8">
         <v>250</v>
@@ -2399,10 +2396,10 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B43" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" s="10">
         <v>1</v>
@@ -2411,21 +2408,21 @@
         <v>3</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="G43" s="7">
-        <v>41596</v>
+        <v>41597</v>
       </c>
       <c r="H43" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>11/18/2013 13:21:59.000</v>
+        <v>11/19/2013 11:34:50.000</v>
       </c>
       <c r="I43" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>11/18/2013 13:22:35.362</v>
+        <v>11/19/2013 11:35:20.698</v>
       </c>
       <c r="J43" s="8">
         <v>250</v>
@@ -2439,7 +2436,7 @@
         <v>18</v>
       </c>
       <c r="B44" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" s="10">
         <v>1</v>
@@ -2448,21 +2445,21 @@
         <v>3</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G44" s="7">
-        <v>41597</v>
+        <v>41617</v>
       </c>
       <c r="H44" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>11/19/2013 11:34:50.000</v>
+        <v>12/09/2013 15:26:46.000</v>
       </c>
       <c r="I44" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>11/19/2013 11:35:20.698</v>
+        <v>12/09/2013 15:27:39.795</v>
       </c>
       <c r="J44" s="8">
         <v>250</v>
@@ -2479,27 +2476,27 @@
         <v>2</v>
       </c>
       <c r="C45" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="G45" s="7">
         <v>41617</v>
       </c>
       <c r="H45" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>12/09/2013 15:26:46.000</v>
+        <v>12/09/2013 16:27:14.859</v>
       </c>
       <c r="I45" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>12/09/2013 15:27:39.795</v>
+        <v>12/09/2013 16:27:14.859</v>
       </c>
       <c r="J45" s="8">
         <v>250</v>
@@ -2516,27 +2513,27 @@
         <v>2</v>
       </c>
       <c r="C46" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G46" s="7">
         <v>41617</v>
       </c>
       <c r="H46" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>12/09/2013 16:27:14.859</v>
+        <v>12/09/2013 17:27:43.312</v>
       </c>
       <c r="I46" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>12/09/2013 16:27:14.859</v>
+        <v>12/09/2013 17:27:43.312</v>
       </c>
       <c r="J46" s="8">
         <v>250</v>
@@ -2553,27 +2550,27 @@
         <v>2</v>
       </c>
       <c r="C47" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G47" s="7">
         <v>41617</v>
       </c>
       <c r="H47" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>12/09/2013 17:27:43.312</v>
+        <v>12/09/2013 18:28:12.062</v>
       </c>
       <c r="I47" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>12/09/2013 17:27:43.312</v>
+        <v>12/09/2013 18:28:12.062</v>
       </c>
       <c r="J47" s="8">
         <v>250</v>
@@ -2590,27 +2587,27 @@
         <v>2</v>
       </c>
       <c r="C48" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G48" s="7">
         <v>41617</v>
       </c>
       <c r="H48" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>12/09/2013 18:28:12.062</v>
+        <v>12/09/2013 19:28:41.000</v>
       </c>
       <c r="I48" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>12/09/2013 18:28:12.062</v>
+        <v>12/09/2013 19:28:41.000</v>
       </c>
       <c r="J48" s="8">
         <v>250</v>
@@ -2619,44 +2616,47 @@
         <v>5.1097655999999998E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>18</v>
       </c>
       <c r="B49" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C49" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="G49" s="7">
-        <v>41617</v>
+        <v>41620</v>
       </c>
       <c r="H49" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>12/09/2013 19:28:41.000</v>
+        <v>12/12/2013 23:55:13.000</v>
       </c>
       <c r="I49" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>12/09/2013 19:28:41.000</v>
+        <v>12/12/2013 23:58:30.781</v>
       </c>
       <c r="J49" s="8">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K49">
         <v>5.1097655999999998E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>18</v>
       </c>
@@ -2664,36 +2664,33 @@
         <v>3</v>
       </c>
       <c r="C50" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="G50" s="7">
-        <v>41620</v>
+        <v>41621</v>
       </c>
       <c r="H50" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>12/12/2013 23:55:13.000</v>
+        <v>12/13/2013 00:55:39.859</v>
       </c>
       <c r="I50" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>12/12/2013 23:58:30.781</v>
+        <v>12/13/2013 00:55:39.859</v>
       </c>
       <c r="J50" s="8">
         <v>200</v>
       </c>
       <c r="K50">
         <v>5.1097655999999998E-2</v>
-      </c>
-      <c r="L50" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2704,27 +2701,27 @@
         <v>3</v>
       </c>
       <c r="C51" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G51" s="7">
         <v>41621</v>
       </c>
       <c r="H51" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>12/13/2013 00:55:39.859</v>
+        <v>12/13/2013 01:56:09.265</v>
       </c>
       <c r="I51" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>12/13/2013 00:55:39.859</v>
+        <v>12/13/2013 01:56:09.265</v>
       </c>
       <c r="J51" s="8">
         <v>200</v>
@@ -2741,27 +2738,27 @@
         <v>3</v>
       </c>
       <c r="C52" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G52" s="7">
         <v>41621</v>
       </c>
       <c r="H52" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>12/13/2013 01:56:09.265</v>
+        <v>12/13/2013 02:56:38.062</v>
       </c>
       <c r="I52" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>12/13/2013 01:56:09.265</v>
+        <v>12/13/2013 02:56:38.062</v>
       </c>
       <c r="J52" s="8">
         <v>200</v>
@@ -2778,27 +2775,27 @@
         <v>3</v>
       </c>
       <c r="C53" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G53" s="7">
         <v>41621</v>
       </c>
       <c r="H53" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>12/13/2013 02:56:38.062</v>
+        <v>12/13/2013 03:57:06.265</v>
       </c>
       <c r="I53" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>12/13/2013 02:56:38.062</v>
+        <v>12/13/2013 03:57:06.265</v>
       </c>
       <c r="J53" s="8">
         <v>200</v>
@@ -2815,27 +2812,27 @@
         <v>3</v>
       </c>
       <c r="C54" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G54" s="7">
         <v>41621</v>
       </c>
       <c r="H54" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>12/13/2013 03:57:06.265</v>
+        <v>12/13/2013 04:57:34.812</v>
       </c>
       <c r="I54" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>12/13/2013 03:57:06.265</v>
+        <v>12/13/2013 04:57:34.812</v>
       </c>
       <c r="J54" s="8">
         <v>200</v>
@@ -2852,27 +2849,27 @@
         <v>3</v>
       </c>
       <c r="C55" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G55" s="7">
         <v>41621</v>
       </c>
       <c r="H55" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>12/13/2013 04:57:34.812</v>
+        <v>12/13/2013 05:58:02.906</v>
       </c>
       <c r="I55" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>12/13/2013 04:57:34.812</v>
+        <v>12/13/2013 05:58:02.906</v>
       </c>
       <c r="J55" s="8">
         <v>200</v>
@@ -2889,27 +2886,27 @@
         <v>3</v>
       </c>
       <c r="C56" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G56" s="7">
         <v>41621</v>
       </c>
       <c r="H56" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>12/13/2013 05:58:02.906</v>
+        <v>12/13/2013 06:58:30.953</v>
       </c>
       <c r="I56" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>12/13/2013 05:58:02.906</v>
+        <v>12/13/2013 06:58:30.953</v>
       </c>
       <c r="J56" s="8">
         <v>200</v>
@@ -2926,27 +2923,27 @@
         <v>3</v>
       </c>
       <c r="C57" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G57" s="7">
         <v>41621</v>
       </c>
       <c r="H57" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>12/13/2013 06:58:30.953</v>
+        <v>12/13/2013 07:59:00.625</v>
       </c>
       <c r="I57" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>12/13/2013 06:58:30.953</v>
+        <v>12/13/2013 07:59:00.625</v>
       </c>
       <c r="J57" s="8">
         <v>200</v>
@@ -2963,27 +2960,27 @@
         <v>3</v>
       </c>
       <c r="C58" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G58" s="7">
         <v>41621</v>
       </c>
       <c r="H58" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>12/13/2013 07:59:00.625</v>
+        <v>12/13/2013 08:59:28.296</v>
       </c>
       <c r="I58" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>12/13/2013 07:59:00.625</v>
+        <v>12/13/2013 08:59:28.296</v>
       </c>
       <c r="J58" s="8">
         <v>200</v>
@@ -3000,27 +2997,27 @@
         <v>3</v>
       </c>
       <c r="C59" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G59" s="7">
         <v>41621</v>
       </c>
       <c r="H59" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>12/13/2013 08:59:28.296</v>
+        <v>12/13/2013 09:59:55.890</v>
       </c>
       <c r="I59" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>12/13/2013 08:59:28.296</v>
+        <v>12/13/2013 09:59:55.890</v>
       </c>
       <c r="J59" s="8">
         <v>200</v>
@@ -3037,27 +3034,27 @@
         <v>3</v>
       </c>
       <c r="C60" s="10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G60" s="7">
         <v>41621</v>
       </c>
       <c r="H60" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>12/13/2013 09:59:55.890</v>
+        <v>12/13/2013 11:00:23.437</v>
       </c>
       <c r="I60" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>12/13/2013 09:59:55.890</v>
+        <v>12/13/2013 11:00:23.437</v>
       </c>
       <c r="J60" s="8">
         <v>200</v>
@@ -3068,33 +3065,33 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B61" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C61" s="10">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="G61" s="7">
-        <v>41621</v>
+        <v>41617</v>
       </c>
       <c r="H61" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>12/13/2013 11:00:23.437</v>
+        <v>12/09/2013 20:01:44.000</v>
       </c>
       <c r="I61" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>12/13/2013 11:00:23.437</v>
+        <v>12/09/2013 20:02:04.277</v>
       </c>
       <c r="J61" s="8">
         <v>200</v>
@@ -3111,27 +3108,27 @@
         <v>1</v>
       </c>
       <c r="C62" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="G62" s="7">
         <v>41617</v>
       </c>
       <c r="H62" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>12/09/2013 20:01:44.000</v>
+        <v>12/09/2013 21:02:13.062</v>
       </c>
       <c r="I62" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>12/09/2013 20:02:04.277</v>
+        <v>12/09/2013 21:02:13.062</v>
       </c>
       <c r="J62" s="8">
         <v>200</v>
@@ -3148,27 +3145,27 @@
         <v>1</v>
       </c>
       <c r="C63" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G63" s="7">
         <v>41617</v>
       </c>
       <c r="H63" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>12/09/2013 21:02:13.062</v>
+        <v>12/09/2013 22:02:41.265</v>
       </c>
       <c r="I63" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>12/09/2013 21:02:13.062</v>
+        <v>12/09/2013 22:02:41.265</v>
       </c>
       <c r="J63" s="8">
         <v>200</v>
@@ -3185,27 +3182,27 @@
         <v>1</v>
       </c>
       <c r="C64" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G64" s="7">
         <v>41617</v>
       </c>
       <c r="H64" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>12/09/2013 22:02:41.265</v>
+        <v>12/09/2013 23:03:10.296</v>
       </c>
       <c r="I64" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>12/09/2013 22:02:41.265</v>
+        <v>12/09/2013 23:03:10.296</v>
       </c>
       <c r="J64" s="8">
         <v>200</v>
@@ -3219,30 +3216,30 @@
         <v>19</v>
       </c>
       <c r="B65" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="G65" s="7">
-        <v>41617</v>
+        <v>41624</v>
       </c>
       <c r="H65" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>12/09/2013 23:03:10.296</v>
+        <v>12/16/2013 11:51:20.000</v>
       </c>
       <c r="I65" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>12/09/2013 23:03:10.296</v>
+        <v>12/16/2013 11:51:41.588</v>
       </c>
       <c r="J65" s="8">
         <v>200</v>
@@ -3259,27 +3256,27 @@
         <v>2</v>
       </c>
       <c r="C66" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="G66" s="7">
         <v>41624</v>
       </c>
       <c r="H66" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>12/16/2013 11:51:20.000</v>
+        <v>12/16/2013 12:51:52.406</v>
       </c>
       <c r="I66" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>12/16/2013 11:51:41.588</v>
+        <v>12/16/2013 12:51:52.406</v>
       </c>
       <c r="J66" s="8">
         <v>200</v>
@@ -3296,27 +3293,27 @@
         <v>2</v>
       </c>
       <c r="C67" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G67" s="7">
         <v>41624</v>
       </c>
       <c r="H67" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>12/16/2013 12:51:52.406</v>
+        <v>12/16/2013 13:52:24.218</v>
       </c>
       <c r="I67" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>12/16/2013 12:51:52.406</v>
+        <v>12/16/2013 13:52:24.218</v>
       </c>
       <c r="J67" s="8">
         <v>200</v>
@@ -3333,27 +3330,27 @@
         <v>2</v>
       </c>
       <c r="C68" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G68" s="7">
         <v>41624</v>
       </c>
       <c r="H68" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>12/16/2013 13:52:24.218</v>
+        <v>12/16/2013 14:52:55.218</v>
       </c>
       <c r="I68" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>12/16/2013 13:52:24.218</v>
+        <v>12/16/2013 14:52:55.218</v>
       </c>
       <c r="J68" s="8">
         <v>200</v>
@@ -3367,30 +3364,30 @@
         <v>19</v>
       </c>
       <c r="B69" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C69" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="G69" s="7">
-        <v>41624</v>
+        <v>41625</v>
       </c>
       <c r="H69" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>12/16/2013 14:52:55.218</v>
+        <f t="shared" ref="H69:H80" si="5">CONCATENATE(TEXT(G69,"mm/dd/yyyy")&amp;" "&amp;TEXT(E69,"hh:mm:ss.000"))</f>
+        <v>12/17/2013 12:13:28.000</v>
       </c>
       <c r="I69" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>12/16/2013 14:52:55.218</v>
+        <v>12/17/2013 12:14:16.945</v>
       </c>
       <c r="J69" s="8">
         <v>200</v>
@@ -3407,27 +3404,27 @@
         <v>3</v>
       </c>
       <c r="C70" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="G70" s="7">
         <v>41625</v>
       </c>
       <c r="H70" s="8" t="str">
-        <f t="shared" ref="H70:H81" si="5">CONCATENATE(TEXT(G70,"mm/dd/yyyy")&amp;" "&amp;TEXT(E70,"hh:mm:ss.000"))</f>
-        <v>12/17/2013 12:13:28.000</v>
+        <f t="shared" si="5"/>
+        <v>12/17/2013 13:14:00.515</v>
       </c>
       <c r="I70" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>12/17/2013 12:14:16.945</v>
+        <f t="shared" ref="I70:I80" si="6">CONCATENATE(TEXT(G70,"mm/dd/yyyy")&amp;" "&amp;TEXT(F70,"hh:mm:ss.000"))</f>
+        <v>12/17/2013 13:14:00.515</v>
       </c>
       <c r="J70" s="8">
         <v>200</v>
@@ -3444,27 +3441,27 @@
         <v>3</v>
       </c>
       <c r="C71" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G71" s="7">
         <v>41625</v>
       </c>
       <c r="H71" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>12/17/2013 13:14:00.515</v>
+        <v>12/17/2013 14:14:31.328</v>
       </c>
       <c r="I71" s="8" t="str">
-        <f t="shared" ref="I71:I81" si="6">CONCATENATE(TEXT(G71,"mm/dd/yyyy")&amp;" "&amp;TEXT(F71,"hh:mm:ss.000"))</f>
-        <v>12/17/2013 13:14:00.515</v>
+        <f t="shared" si="6"/>
+        <v>12/17/2013 14:14:31.328</v>
       </c>
       <c r="J71" s="8">
         <v>200</v>
@@ -3481,27 +3478,27 @@
         <v>3</v>
       </c>
       <c r="C72" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G72" s="7">
         <v>41625</v>
       </c>
       <c r="H72" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>12/17/2013 14:14:31.328</v>
+        <v>12/17/2013 15:15:02.515</v>
       </c>
       <c r="I72" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>12/17/2013 14:14:31.328</v>
+        <v>12/17/2013 15:15:02.515</v>
       </c>
       <c r="J72" s="8">
         <v>200</v>
@@ -3515,30 +3512,30 @@
         <v>19</v>
       </c>
       <c r="B73" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C73" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="G73" s="7">
-        <v>41625</v>
+        <v>41628</v>
       </c>
       <c r="H73" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>12/17/2013 15:15:02.515</v>
+        <v>12/20/2013 12:20:59.000</v>
       </c>
       <c r="I73" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>12/17/2013 15:15:02.515</v>
+        <v>12/20/2013 12:21:19.761</v>
       </c>
       <c r="J73" s="8">
         <v>200</v>
@@ -3555,27 +3552,27 @@
         <v>4</v>
       </c>
       <c r="C74" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="G74" s="7">
         <v>41628</v>
       </c>
       <c r="H74" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>12/20/2013 12:20:59.000</v>
+        <v>12/20/2013 13:21:29.812</v>
       </c>
       <c r="I74" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>12/20/2013 12:21:19.761</v>
+        <v>12/20/2013 13:21:29.812</v>
       </c>
       <c r="J74" s="8">
         <v>200</v>
@@ -3592,27 +3589,27 @@
         <v>4</v>
       </c>
       <c r="C75" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G75" s="7">
         <v>41628</v>
       </c>
       <c r="H75" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>12/20/2013 13:21:29.812</v>
+        <v>12/20/2013 14:22:00.750</v>
       </c>
       <c r="I75" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>12/20/2013 13:21:29.812</v>
+        <v>12/20/2013 14:22:00.750</v>
       </c>
       <c r="J75" s="8">
         <v>200</v>
@@ -3629,27 +3626,27 @@
         <v>4</v>
       </c>
       <c r="C76" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G76" s="7">
         <v>41628</v>
       </c>
       <c r="H76" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>12/20/2013 14:22:00.750</v>
+        <v>12/20/2013 15:22:35.015</v>
       </c>
       <c r="I76" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>12/20/2013 14:22:00.750</v>
+        <v>12/20/2013 15:22:35.015</v>
       </c>
       <c r="J76" s="8">
         <v>200</v>
@@ -3660,33 +3657,33 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B77" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C77" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="G77" s="7">
-        <v>41628</v>
+        <v>42474</v>
       </c>
       <c r="H77" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>12/20/2013 15:22:35.015</v>
+        <v>04/14/2016 12:46:24.000</v>
       </c>
       <c r="I77" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>12/20/2013 15:22:35.015</v>
+        <v>04/14/2016 12:46:30.876</v>
       </c>
       <c r="J77" s="8">
         <v>200</v>
@@ -3703,75 +3700,75 @@
         <v>1</v>
       </c>
       <c r="C78" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="G78" s="7">
         <v>42474</v>
       </c>
       <c r="H78" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>04/14/2016 12:46:24.000</v>
+        <v>04/14/2016 15:47:02.531</v>
       </c>
       <c r="I78" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>04/14/2016 12:46:30.876</v>
+        <v>04/14/2016 15:47:02.531</v>
       </c>
       <c r="J78" s="8">
         <v>200</v>
       </c>
       <c r="K78">
-        <v>5.1097655999999998E-2</v>
+        <v>6.1268000000000003E-2</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B79" s="9">
         <v>1</v>
       </c>
       <c r="C79" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="G79" s="7">
-        <v>42474</v>
+        <v>41810</v>
       </c>
       <c r="H79" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>04/14/2016 15:47:02.531</v>
+        <v>06/20/2014 15:52:06.000</v>
       </c>
       <c r="I79" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>04/14/2016 15:47:02.531</v>
+        <v>06/20/2014 15:52:58.473</v>
       </c>
       <c r="J79" s="8">
         <v>200</v>
       </c>
       <c r="K79">
-        <v>6.1268000000000003E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5.4193970000000001E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B80" s="9">
         <v>1</v>
@@ -3783,30 +3780,30 @@
         <v>3</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="G80" s="7">
-        <v>41810</v>
+        <v>41926</v>
       </c>
       <c r="H80" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>06/20/2014 15:52:06.000</v>
+        <v>10/14/2014 17:41:12.968</v>
       </c>
       <c r="I80" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>06/20/2014 15:52:58.473</v>
+        <v>10/14/2014 17:41:12.968</v>
       </c>
       <c r="J80" s="8">
         <v>200</v>
       </c>
       <c r="K80">
-        <v>5.4193970000000001E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9.2448529000000002E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="9">
         <v>22</v>
       </c>
@@ -3814,27 +3811,27 @@
         <v>1</v>
       </c>
       <c r="C81" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G81" s="7">
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="H81" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>10/14/2014 17:41:12.968</v>
+        <f t="shared" ref="H81:H83" si="7">CONCATENATE(TEXT(G81,"mm/dd/yyyy")&amp;" "&amp;TEXT(E81,"hh:mm:ss.000"))</f>
+        <v>10/15/2014 05:42:25.000</v>
       </c>
       <c r="I81" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>10/14/2014 17:41:12.968</v>
+        <f t="shared" ref="I81:I83" si="8">CONCATENATE(TEXT(G81,"mm/dd/yyyy")&amp;" "&amp;TEXT(F81,"hh:mm:ss.000"))</f>
+        <v>10/15/2014 05:42:25.484</v>
       </c>
       <c r="J81" s="8">
         <v>200</v>
@@ -3845,33 +3842,33 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B82" s="9">
         <v>1</v>
       </c>
       <c r="C82" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G82" s="7">
-        <v>41927</v>
+        <v>41926</v>
       </c>
       <c r="H82" s="8" t="str">
-        <f t="shared" ref="H82:H84" si="7">CONCATENATE(TEXT(G82,"mm/dd/yyyy")&amp;" "&amp;TEXT(E82,"hh:mm:ss.000"))</f>
-        <v>10/15/2014 05:42:25.000</v>
+        <f t="shared" si="7"/>
+        <v>10/14/2014 17:41:12.000</v>
       </c>
       <c r="I82" s="8" t="str">
-        <f t="shared" ref="I82:I84" si="8">CONCATENATE(TEXT(G82,"mm/dd/yyyy")&amp;" "&amp;TEXT(F82,"hh:mm:ss.000"))</f>
-        <v>10/15/2014 05:42:25.484</v>
+        <f t="shared" si="8"/>
+        <v>10/14/2014 17:41:12.968</v>
       </c>
       <c r="J82" s="8">
         <v>200</v>
@@ -3888,27 +3885,27 @@
         <v>1</v>
       </c>
       <c r="C83" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G83" s="7">
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="H83" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>10/14/2014 17:41:12.000</v>
+        <v>10/15/2014 05:42:25.000</v>
       </c>
       <c r="I83" s="8" t="str">
         <f t="shared" si="8"/>
-        <v>10/14/2014 17:41:12.968</v>
+        <v>10/15/2014 05:42:25.484</v>
       </c>
       <c r="J83" s="8">
         <v>200</v>
@@ -3918,41 +3915,7 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="9">
-        <v>23</v>
-      </c>
-      <c r="B84" s="9">
-        <v>1</v>
-      </c>
-      <c r="C84" s="10">
-        <v>2</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E84" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G84" s="7">
-        <v>41927</v>
-      </c>
-      <c r="H84" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>10/15/2014 05:42:25.000</v>
-      </c>
-      <c r="I84" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v>10/15/2014 05:42:25.484</v>
-      </c>
-      <c r="J84" s="8">
-        <v>200</v>
-      </c>
-      <c r="K84">
-        <v>9.2448529000000002E-2</v>
-      </c>
+      <c r="B84" s="11"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B85" s="11"/>
@@ -4340,9 +4303,6 @@
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B213" s="11"/>
-    </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B214" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
